--- a/dados_processados/hemoprod_ap.xlsx
+++ b/dados_processados/hemoprod_ap.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JI2"/>
+  <dimension ref="A1:JJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,1270 +515,1275 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>estado</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>razao_social_nome_fantasia</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>razao_social_nome_fantasia_outros</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>cnpj</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>tipo_estabelecimento</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>natureza_estabelecimento</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>dados_informados_referem_se</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>rede_estabelecimento</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>cnes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>endereco</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>triagem_clinica_total_doacao_espontanea_aptos</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>triagem_clinica_total_doacao_espontanea_inaptos</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>triagem_clinica_total_doacao_reposicao_aptos</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>triagem_clinica_total_doacao_reposicao_inaptos</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>triagem_clinica_total_doacao_autologa_aptos</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>triagem_clinica_total_doacao_autologa_inaptos</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>total_doador_primeira_vez_aptos</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>total_doador_primeira_vez_inaptos</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>total_doador_repeticao_aptos</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>total_doador_repeticao_inaptos</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>total_doador_esporadico_aptos</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>total_doador_esporadico_inaptos</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>total_doador_masculino_aptos</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>total_doador_masculino_inaptos</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>total_doador_feminino_aptos</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>total_doador_feminino_inaptos</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>total_doador_menor_de_18_anos_aptos</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>total_doador_menor_de_18_anos_inaptos</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>total_doador_18_ate_29_anos_aptos</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>total_doador_18_ate_29_anos_inaptos</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>total_doador_acima_de_29_anos_aptos</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>total_doador_acima_de_29_anos_inaptos</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_anemia_masculino</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_anemia_feminino</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_anemia_total</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hipertensao_masculino</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hipertensao_feminino</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hipertensao_total</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hipotensao_masculino</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hipotensao_feminino</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hipotensao_total</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_alcoolismo_masculino</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_alcoolismo_feminino</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_alcoolismo_total</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_comportamento_risco_dst_masculino</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_comportamento_risco_dst_feminino</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_comportamento_risco_dst_total</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_uso_drogas_masculino</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_uso_drogas_feminino</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_uso_drogas_total</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hepatite_masculino</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hepatite_feminino</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_hepatite_total</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_doenca_chagas_masculino</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_doenca_chagas_feminino</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_doenca_chagas_total</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_malaria_masculino</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_malaria_feminino</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_malaria_total</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_outras_masculino</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_outras_feminino</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>total_candidatos_inaptos_outras_total</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>coleta_total_candidatos_desistentes</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>total_interrupcoes_coleta_dificuldade_puncao_venosa</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>total_interrupcoes_coleta_reacao_vagal</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>total_interrupcoes_coleta_outros_motivos</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>total_coletas_sangue_total</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>total_coletas_aferese</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>hemoprod_1_observacoes</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_doenca_chagas_amostras_testadas</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_doenca_chagas_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hiv_amostras_testadas</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hiv_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_sifilis_amostras_testadas</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>`exames_triagem_doenca_sifilis_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hepatite_b_hbs_ag_amostras_testadas</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hepatite_b_hbs_ag_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hepatite_b_anti_hbc_amostras_testadas</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hepatite_b_anti_hbc_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hepatite_c_amostras_testadas</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hepatite_c_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_htlv_i_ii_amostras_testadas</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_htlv_i_ii_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_malaria_amostras_testadas</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_malaria_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hbv_teste_nat_amostras_testadas</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hbv_teste_nat_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hcv_teste_nat_amostras_testadas</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hcv_teste_nat_amostras_reagentes</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hiv_teste_nat_amostras_testadas</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>exames_triagem_doenca_hiv_teste_nat_amostras_reagentes</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_a_positivo_doador</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_a_positivo_receptor</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_b_positivo_doador</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_b_positivo_receptor</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_ab_positivo_doador</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_ab_positivo_receptor</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_o_positivo_doador</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_o_positivo_receptor</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_a_negativo_doador</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_a_negativo_receptor</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_b_negativo_doador</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_b_negativo_receptor</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_ab_negativo_doador</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_ab_negativo_receptor</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_o_negativo_doador</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_o_negativo_receptor</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_dfraco_doador</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_dfraco_receptor</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_pesquisa_anticorpo_irregular_positivo_doador</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_pesquisa_anticorpo_irregular_positivo_receptor</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_fenotipagem_doador</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_fenotipagem_receptor</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_combs_direto_doador</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>imunohematologia_combs_direto_receptor</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>outros_tipos_pesquisa_pesquisa_hbs_doador</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>inaptidao_triagem_laboratorial_total_bolsas_testadas</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>inaptidao_triagem_laboratorial_total_bolsas_reagentes_1_ou_mais_marcadores</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>descarte_bolsas_total_bolsas_descartadas_auto_exclusao</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>hemoprod_2_observacoes</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_sangue_total_produzidas</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_sangue_total_recebidas</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_sangue_total_devolvidas</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_plasma_fresco_congelado_produzidas</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_plasma_fresco_congelado_recebidas</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_plasma_fresco_congelado_devolvidas</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_plasma_comum_produzidas</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_plasma_comum_recebidas</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_plasma_comum_devolvidas</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_hemacias_produzidas</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_hemacias_recebidas</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_hemacias_devolvidas</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_hemacias_sem_buffy_coat_produzidas</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_hemacias_sem_buffy_coat_recebidas</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_hemacias_sem_buffy_coat_devolvidas</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_plaquetas_produzidas</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_plaquetas_recebidas</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_plaquetas_devolvidas</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_plaquetas_aferese_produzidas</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_plaquetas_aferese_recebidas</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_plaquetas_aferese_devolvidas</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_leucocitos_produzidas</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_leucocitos_recebidas</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_leucocitos_devolvidas</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_crioprecipitado_produzidas</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_crioprecipitado_recebidas</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_crioprecipitado_devolvidas</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_de_plaquetas_sem_buffy_coat_produzidas</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_de_plaquetas_sem_buffy_coat_recebidas</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>producao_hemoterapica_entradas_concentrado_de_plaquetas_sem_buffy_coat_devolvidas</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>perdas_sangue_total_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>perdas_sangue_total_validade</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>perdas_sangue_total_outros_motivos</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>perdas_plasma_fresco_congelado_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>perdas_plasma_fresco_congelado_validade</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>perdas_plasma_fresco_congelado_outros_motivos</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>perdas_plasma_comum_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>perdas_plasma_comum_validade</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>perdas_plasma_comum_outros_motivos</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_hemacias_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_hemacias_validade</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_hemacias_outros_motivos</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_hemacias_sem_buffy_coat_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_hemacias_sem_buffy_coat_validade</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_hemacias_sem_buffy_coat_outros_motivos</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_validade</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_outros_motivos</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_de_aferese_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_de_aferese_validade</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_de_aferese_outros_motivos</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_leucocitos_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_leucocitos_validade</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_leucocitos_outros_motivos</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>perdas_crioprecipitado_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>perdas_crioprecipitado_validade</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>perdas_crioprecipitado_outros_motivos</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_sem_buffy_coat_rompimento_de_bolsa</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_sem_buffy_coat_validade</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>perdas_concentrado_de_plaquetas_sem_buffy_coat_outros_motivos</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_sangue_total_ambulatorial</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_sangue_total_hospitalar</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_sangue_total_total</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_plasma_fresco_congelado_ambulatorial</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_plasma_fresco_congelado_hospitalar</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_plasma_fresco_congelado_total</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_plasma_comum_ambulatorial</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_plasma_comum_hospitalar</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_plasma_comum_total</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_hemacias_ambulatorial</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_hemacias_hospitalar</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_hemacias_total</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_hemacias_sem_buffy_coat_ambulatorial</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_hemacias_sem_buffy_coat_hospitalar</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_hemacias_sem_buffy_coat_total</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_ambulatorial</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_hospitalar</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_total</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_de_aferese_ambulatorial</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_de_aferese_hospitalar</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_de_aferese_total</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_leucocitos_ambulatorial</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_leucocitos_hospitalar</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_leucocitos_total</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_crioprecipitado_ambulatorial</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_crioprecipitado_hospitalar</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_crioprecipitado_total</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_sem_buffy_coat_ambulatorial</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_sem_buffy_coat_hospitalar</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>tranfusoes_concentrado_de_plaquetas_sem_buffy_coat_total</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_sangue_total_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_sangue_total_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_sangue_total_total</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_plasma_fresco_congelado_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_plasma_fresco_congelado_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_plasma_fresco_congelado_total</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_plasma_comum_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_plasma_comum_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_plasma_comum_total</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_hemacias_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_hemacias_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_hemacias_total</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_hemacias_sem_buffy_coat_sem_exame_pre_transfusi</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_hemacias_sem_buffy_coat_com_exame_pre_transfusi</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_hemacias_sem_buffy_coat_total</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_total</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_aferese_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_aferese_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_aferese_total</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_leucocitos_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_leucocitos_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_leucocitos_total</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_crioprecipitado_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_crioprecipitado_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_crioprecipitado_total</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_sem_buffy_coat_sem_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_sem_buffy_coat_com_exame_pre_transfusional</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>distribuicao_para_outros_servicos_concentrado_de_plaquetas_sem_buffy_coat_total</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>procedimentos_de_modificacao_dos_hemocomponentes_lavagem</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>procedimentos_de_modificacao_dos_hemocomponentes_irradiacao</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>procedimentos_de_modificacao_dos_hemocomponentes_filtracao_em_concentrado_de_plaquetas</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>procedimentos_de_modificacao_dos_hemocomponentes_filtracao_em_concentrado_de_hemacias</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>procedimentos_de_modificacao_dos_hemocomponentes_fracionamento_pediatrico</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_reacao_febril_nao_hemolitica</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_reacao_hemolitica</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_reacao_alergica</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_choque_bacteriano</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_alteracoes_metabolicas</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_sobrecarga_volemica</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>reacoes_transfusionais_outras_reacoes</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>envio_plasma_producao_hemoderivados_plasma_fresco_congelado</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>envio_plasma_producao_hemoderivados_plasma_comum</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>hemoprod_3_observacoes</t>
         </is>
@@ -1822,7 +1827,9 @@
           <t>177.84.201.126</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>RETIFICADORA</t>
@@ -1836,37 +1843,44 @@
           <t>Consolidado</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Macapá, Amapá</t>
+          <t>Macapá</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>Amapá</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>Secretaria de Estado de Saúde do Amapá - Instituto de Hematologia e Hemoterapia do Amapá - HEMOAP</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
         <v>1762561000190</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Hemocentro Coordenador</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Público</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Rede de serviços</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Instituto de Hematologia e Hemoterapia do Amapá - Hemocentro Coordenador
 Agência Transfusional do Hospital de Clínicas Dr. Alberto Lima
@@ -1877,140 +1891,141 @@
 Agência Transfusional do Hospital de Oiapoque</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
       <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
         <v>6228</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>1306</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>10187</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>2806</v>
       </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
         <v>3712</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>2052</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>12693</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>2058</v>
       </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>10078</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>1922</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>6338</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>2190</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>120</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>36</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>5180</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>1662</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>11117</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>2414</v>
       </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
         <v>514</v>
       </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
       <c r="AY2" t="n">
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
         <v>163</v>
       </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
       <c r="BB2" t="n">
         <v>0</v>
       </c>
       <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
         <v>1</v>
       </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
         <v>7</v>
       </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>1071</v>
       </c>
-      <c r="BJ2" t="n">
-        <v>0</v>
-      </c>
       <c r="BK2" t="n">
         <v>0</v>
       </c>
       <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
         <v>18</v>
       </c>
-      <c r="BM2" t="n">
-        <v>0</v>
-      </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
         <v>6</v>
       </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ2" t="n">
         <v>0</v>
       </c>
@@ -2024,202 +2039,202 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
         <v>6</v>
       </c>
-      <c r="BV2" t="n">
-        <v>0</v>
-      </c>
       <c r="BW2" t="n">
         <v>0</v>
       </c>
       <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
         <v>2326</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BZ2" t="n">
         <v>156</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CA2" t="n">
         <v>28</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CB2" t="n">
         <v>602</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2" t="n">
         <v>1120</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2" t="n">
         <v>16259</v>
       </c>
-      <c r="CD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="inlineStr"/>
-      <c r="CF2" t="n">
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="n">
         <v>16168</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CH2" t="n">
         <v>23</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CI2" t="n">
         <v>16168</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CJ2" t="n">
         <v>20</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CK2" t="n">
         <v>16168</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CL2" t="n">
         <v>142</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CM2" t="n">
         <v>16168</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CN2" t="n">
         <v>25</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CO2" t="n">
         <v>16168</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CP2" t="n">
         <v>118</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CQ2" t="n">
         <v>16168</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CR2" t="n">
         <v>45</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CS2" t="n">
         <v>16168</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CT2" t="n">
         <v>20</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CU2" t="n">
         <v>16168</v>
       </c>
-      <c r="CU2" t="n">
-        <v>0</v>
-      </c>
       <c r="CV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="n">
         <v>16168</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CX2" t="n">
         <v>2</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CY2" t="n">
         <v>16168</v>
       </c>
-      <c r="CY2" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="n">
         <v>16168</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DB2" t="n">
         <v>15</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DC2" t="n">
         <v>3748</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DD2" t="n">
         <v>2539</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DE2" t="n">
         <v>1532</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DF2" t="n">
         <v>1037</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DG2" t="n">
         <v>244</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DH2" t="n">
         <v>166</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DI2" t="n">
         <v>9480</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DJ2" t="n">
         <v>6449</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>319</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>209</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>104</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>9</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>27</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>2</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>773</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>525</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>42</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>501</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>16269</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>9262</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>3004</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>64</v>
       </c>
-      <c r="DX2" t="n">
-        <v>0</v>
-      </c>
       <c r="DY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ2" t="n">
         <v>1435</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>2468</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>16168</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>410</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>216</v>
       </c>
-      <c r="ED2" t="inlineStr"/>
-      <c r="EE2" t="n">
+      <c r="EE2" t="inlineStr"/>
+      <c r="EF2" t="n">
         <v>410</v>
       </c>
-      <c r="EF2" t="n">
-        <v>0</v>
-      </c>
       <c r="EG2" t="n">
         <v>0</v>
       </c>
       <c r="EH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="n">
         <v>15288</v>
       </c>
-      <c r="EI2" t="n">
-        <v>0</v>
-      </c>
       <c r="EJ2" t="n">
         <v>0</v>
       </c>
@@ -2233,20 +2248,20 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO2" t="n">
         <v>10</v>
       </c>
-      <c r="EO2" t="n">
-        <v>0</v>
-      </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER2" t="n">
         <v>14614</v>
       </c>
-      <c r="ER2" t="n">
-        <v>0</v>
-      </c>
       <c r="ES2" t="n">
         <v>0</v>
       </c>
@@ -2278,20 +2293,20 @@
         <v>0</v>
       </c>
       <c r="FC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" t="n">
         <v>810</v>
       </c>
-      <c r="FD2" t="n">
-        <v>0</v>
-      </c>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
       <c r="FF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG2" t="n">
         <v>8926</v>
       </c>
-      <c r="FG2" t="n">
-        <v>0</v>
-      </c>
       <c r="FH2" t="n">
         <v>0</v>
       </c>
@@ -2302,20 +2317,20 @@
         <v>0</v>
       </c>
       <c r="FK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" t="n">
         <v>412</v>
       </c>
-      <c r="FL2" t="n">
+      <c r="FM2" t="n">
         <v>67</v>
       </c>
-      <c r="FM2" t="n">
+      <c r="FN2" t="n">
         <v>505</v>
       </c>
-      <c r="FN2" t="n">
+      <c r="FO2" t="n">
         <v>9974</v>
       </c>
-      <c r="FO2" t="n">
-        <v>0</v>
-      </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
@@ -2332,17 +2347,17 @@
         <v>0</v>
       </c>
       <c r="FU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV2" t="n">
         <v>17</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="FW2" t="n">
         <v>50</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="FX2" t="n">
         <v>912</v>
       </c>
-      <c r="FX2" t="n">
-        <v>0</v>
-      </c>
       <c r="FY2" t="n">
         <v>0</v>
       </c>
@@ -2374,20 +2389,20 @@
         <v>0</v>
       </c>
       <c r="GI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ2" t="n">
         <v>26</v>
       </c>
-      <c r="GJ2" t="n">
-        <v>0</v>
-      </c>
       <c r="GK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL2" t="n">
         <v>644</v>
       </c>
-      <c r="GL2" t="n">
+      <c r="GM2" t="n">
         <v>3104</v>
       </c>
-      <c r="GM2" t="n">
-        <v>0</v>
-      </c>
       <c r="GN2" t="n">
         <v>0</v>
       </c>
@@ -2398,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1192</v>
+        <v>0</v>
       </c>
       <c r="GR2" t="n">
         <v>1192</v>
       </c>
       <c r="GS2" t="n">
-        <v>0</v>
+        <v>1192</v>
       </c>
       <c r="GT2" t="n">
         <v>0</v>
@@ -2422,17 +2437,17 @@
         <v>0</v>
       </c>
       <c r="GY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ2" t="n">
         <v>404</v>
       </c>
-      <c r="GZ2" t="n">
+      <c r="HA2" t="n">
         <v>3173</v>
       </c>
-      <c r="HA2" t="n">
+      <c r="HB2" t="n">
         <v>3577</v>
       </c>
-      <c r="HB2" t="n">
-        <v>0</v>
-      </c>
       <c r="HC2" t="n">
         <v>0</v>
       </c>
@@ -2461,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="HL2" t="n">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="HM2" t="n">
         <v>732</v>
       </c>
       <c r="HN2" t="n">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="HO2" t="n">
-        <v>2236</v>
+        <v>0</v>
       </c>
       <c r="HP2" t="n">
         <v>2236</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0</v>
+        <v>2236</v>
       </c>
       <c r="HR2" t="n">
         <v>0</v>
@@ -2485,11 +2500,11 @@
         <v>0</v>
       </c>
       <c r="HT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU2" t="n">
         <v>3806</v>
       </c>
-      <c r="HU2" t="n">
-        <v>0</v>
-      </c>
       <c r="HV2" t="n">
         <v>0</v>
       </c>
@@ -2512,17 +2527,17 @@
         <v>0</v>
       </c>
       <c r="IC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID2" t="n">
         <v>13555</v>
       </c>
-      <c r="ID2" t="n">
-        <v>0</v>
-      </c>
       <c r="IE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF2" t="n">
         <v>13555</v>
       </c>
-      <c r="IF2" t="n">
-        <v>0</v>
-      </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
@@ -2548,26 +2563,26 @@
         <v>0</v>
       </c>
       <c r="IO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP2" t="n">
         <v>1028</v>
       </c>
-      <c r="IP2" t="n">
-        <v>0</v>
-      </c>
       <c r="IQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR2" t="n">
         <v>1028</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IS2" t="n">
         <v>4646</v>
       </c>
-      <c r="IS2" t="n">
-        <v>0</v>
-      </c>
       <c r="IT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU2" t="n">
         <v>4646</v>
       </c>
-      <c r="IU2" t="n">
-        <v>0</v>
-      </c>
       <c r="IV2" t="n">
         <v>0</v>
       </c>
@@ -2575,14 +2590,14 @@
         <v>0</v>
       </c>
       <c r="IX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY2" t="n">
         <v>1228</v>
       </c>
-      <c r="IY2" t="n">
+      <c r="IZ2" t="n">
         <v>4034</v>
       </c>
-      <c r="IZ2" t="n">
-        <v>0</v>
-      </c>
       <c r="JA2" t="n">
         <v>0</v>
       </c>
@@ -2599,15 +2614,18 @@
         <v>0</v>
       </c>
       <c r="JF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG2" t="n">
         <v>2</v>
       </c>
-      <c r="JG2" t="n">
-        <v>0</v>
-      </c>
       <c r="JH2" t="n">
         <v>0</v>
       </c>
-      <c r="JI2" t="inlineStr"/>
+      <c r="JI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
